--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_34_1.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_34_1.xlsx
@@ -518,276 +518,276 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_7</t>
+          <t>model_34_1_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998586659869834</v>
+        <v>0.9994679524513207</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991913571610825</v>
+        <v>0.9990894513437119</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9992102390859159</v>
+        <v>0.9991826538473247</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999618777654329</v>
+        <v>0.9998636545080422</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999174827884861</v>
+        <v>0.9995564991341198</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001319290973048714</v>
+        <v>0.0004966430325038459</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007548325948111623</v>
+        <v>0.0008499572021783085</v>
       </c>
       <c r="I2" t="n">
-        <v>8.833602154296086e-05</v>
+        <v>0.0005750580863866574</v>
       </c>
       <c r="J2" t="n">
-        <v>5.394112482596421e-05</v>
+        <v>0.0001151800648972819</v>
       </c>
       <c r="K2" t="n">
-        <v>7.113857318446254e-05</v>
+        <v>0.000345122761876294</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00134129819854296</v>
+        <v>0.002383547955156771</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01148603923486558</v>
+        <v>0.02228548928123065</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000116966079738</v>
+        <v>1.0004403152127</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01197502370447284</v>
+        <v>0.02323422869725514</v>
       </c>
       <c r="P2" t="n">
-        <v>123.8664918426398</v>
+        <v>121.2152780687757</v>
       </c>
       <c r="Q2" t="n">
-        <v>188.4669105606544</v>
+        <v>185.8156967867903</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_8</t>
+          <t>model_34_1_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998750346740759</v>
+        <v>0.9993437518986017</v>
       </c>
       <c r="C3" t="n">
-        <v>0.999190379714968</v>
+        <v>0.9990872616006206</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9991222217567938</v>
+        <v>0.9989273482886988</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999581100892451</v>
+        <v>0.9999050551797707</v>
       </c>
       <c r="F3" t="n">
-        <v>0.99990868110898</v>
+        <v>0.9994635619529458</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001166496464062836</v>
+        <v>0.0006125787966928969</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007557449978541368</v>
+        <v>0.0008520012312354282</v>
       </c>
       <c r="I3" t="n">
-        <v>9.818090059790583e-05</v>
+        <v>0.0007546827478679056</v>
       </c>
       <c r="J3" t="n">
-        <v>5.927220506980062e-05</v>
+        <v>8.020617622657815e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>7.872655283385322e-05</v>
+        <v>0.0004174444620472419</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001269759036410754</v>
+        <v>0.002640101340647543</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01080044658365031</v>
+        <v>0.02475032922392946</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000103419580075</v>
+        <v>1.000543101877019</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01126024395472289</v>
+        <v>0.02580400197923673</v>
       </c>
       <c r="P3" t="n">
-        <v>124.1126711814755</v>
+        <v>120.7956659523158</v>
       </c>
       <c r="Q3" t="n">
-        <v>188.7130898994901</v>
+        <v>185.3960846703305</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_6</t>
+          <t>model_34_1_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998372755222689</v>
+        <v>0.9995598409457898</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991882664142399</v>
+        <v>0.9990678881550552</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9992823724841492</v>
+        <v>0.9993713093046073</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999635857994097</v>
+        <v>0.9997896910571286</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999235638407081</v>
+        <v>0.9996016413402116</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000151896157183</v>
+        <v>0.000410869156355755</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007577176713207601</v>
+        <v>0.000870085492274754</v>
       </c>
       <c r="I4" t="n">
-        <v>8.02677855658752e-05</v>
+        <v>0.0004423262616925665</v>
       </c>
       <c r="J4" t="n">
-        <v>5.152433905784147e-05</v>
+        <v>0.0001776618892240746</v>
       </c>
       <c r="K4" t="n">
-        <v>6.589606231185833e-05</v>
+        <v>0.0003099940754583205</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001423070154949548</v>
+        <v>0.002166022329947672</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01232461590407588</v>
+        <v>0.02026990765533368</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000134668533295</v>
+        <v>1.000364269562105</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01284930031858443</v>
+        <v>0.02113283958871458</v>
       </c>
       <c r="P4" t="n">
-        <v>123.584626894034</v>
+        <v>121.5944714970382</v>
       </c>
       <c r="Q4" t="n">
-        <v>188.1850456120486</v>
+        <v>186.1948902150529</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_9</t>
+          <t>model_34_1_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998874435930396</v>
+        <v>0.9996260531484744</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991867656495325</v>
+        <v>0.9990293085558044</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9990231098731155</v>
+        <v>0.9995049697786544</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999525194638834</v>
+        <v>0.9996905960279485</v>
       </c>
       <c r="F5" t="n">
-        <v>0.999897663733583</v>
+        <v>0.9996082767191889</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000105066465242271</v>
+        <v>0.0003490629715294017</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007591185692991475</v>
+        <v>0.0009060978547266022</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001092667233268361</v>
+        <v>0.0003482871129432354</v>
       </c>
       <c r="J5" t="n">
-        <v>6.718267054781964e-05</v>
+        <v>0.0002613740217490214</v>
       </c>
       <c r="K5" t="n">
-        <v>8.822469693732786e-05</v>
+        <v>0.0003048305673461284</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001206379106395758</v>
+        <v>0.001980306244442742</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01025019342462721</v>
+        <v>0.01868322701059433</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000093150129898</v>
+        <v>1.000309473256435</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01068656537953912</v>
+        <v>0.01947861066404695</v>
       </c>
       <c r="P5" t="n">
-        <v>124.3218348115217</v>
+        <v>121.9205164357129</v>
       </c>
       <c r="Q5" t="n">
-        <v>188.9222535295364</v>
+        <v>186.5209351537275</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_10</t>
+          <t>model_34_1_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998981324339583</v>
+        <v>0.9996721121098229</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991827211700042</v>
+        <v>0.9989788140847351</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9989429074131684</v>
+        <v>0.9995949360925386</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999947151143566</v>
+        <v>0.9995720442036444</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999888055465974</v>
+        <v>0.999584598847963</v>
       </c>
       <c r="G6" t="n">
-        <v>9.508890143060617e-05</v>
+        <v>0.0003060689528653825</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007628939134066324</v>
+        <v>0.0009532322270187024</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001182374967638835</v>
+        <v>0.0002849897497243342</v>
       </c>
       <c r="J6" t="n">
-        <v>7.477858510087371e-05</v>
+        <v>0.0003615225974074923</v>
       </c>
       <c r="K6" t="n">
-        <v>9.650804093237861e-05</v>
+        <v>0.0003232561735659133</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001143120760429594</v>
+        <v>0.00186663226256989</v>
       </c>
       <c r="M6" t="n">
-        <v>0.009751353825526287</v>
+        <v>0.01749482645999618</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000084304192586</v>
+        <v>1.000271355495319</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01016648914596414</v>
+        <v>0.01823961744168156</v>
       </c>
       <c r="P6" t="n">
-        <v>124.5213965988462</v>
+        <v>122.1834002904698</v>
       </c>
       <c r="Q6" t="n">
-        <v>189.1218153168609</v>
+        <v>186.7838190084844</v>
       </c>
     </row>
     <row r="7">
@@ -797,1097 +797,1097 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998101117170559</v>
+        <v>0.9997021085436267</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991820049967696</v>
+        <v>0.9989199800930096</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9993405660243836</v>
+        <v>0.9996510114087616</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999635171410912</v>
+        <v>0.9994375890835886</v>
       </c>
       <c r="F7" t="n">
-        <v>0.999927282579035</v>
+        <v>0.9995369681333727</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001772523769960367</v>
+        <v>0.0002780685986007081</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007635624296847303</v>
+        <v>0.001008151175780686</v>
       </c>
       <c r="I7" t="n">
-        <v>7.375874500419251e-05</v>
+        <v>0.0002455369867362755</v>
       </c>
       <c r="J7" t="n">
-        <v>5.162148726983222e-05</v>
+        <v>0.0004751057399920237</v>
       </c>
       <c r="K7" t="n">
-        <v>6.269011613701237e-05</v>
+        <v>0.0003603213633641496</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001512880303414644</v>
+        <v>0.001780806087415933</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01331361622535503</v>
+        <v>0.01667538900897692</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000157148923816</v>
+        <v>1.000246530860447</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01388040443105334</v>
+        <v>0.01738529484190303</v>
       </c>
       <c r="P7" t="n">
-        <v>123.2758719644542</v>
+        <v>122.3752854343135</v>
       </c>
       <c r="Q7" t="n">
-        <v>187.8762906824688</v>
+        <v>186.9757041523282</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_11</t>
+          <t>model_34_1_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999064202871726</v>
+        <v>0.9997189849129846</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991772838463362</v>
+        <v>0.9988549888919873</v>
       </c>
       <c r="D8" t="n">
-        <v>0.998866228565194</v>
+        <v>0.9996814141935986</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999411224445794</v>
+        <v>0.9992892149868998</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9998781326990284</v>
+        <v>0.9994701768770181</v>
       </c>
       <c r="G8" t="n">
-        <v>8.735255424970002e-05</v>
+        <v>0.0002623152485921476</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0007679694163797465</v>
+        <v>0.001068817609150991</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001268141485654084</v>
+        <v>0.0002241465792424472</v>
       </c>
       <c r="J8" t="n">
-        <v>8.330890364776614e-05</v>
+        <v>0.0006004471637552406</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001050625166544704</v>
+        <v>0.0004122968714988439</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001086018428775668</v>
+        <v>0.00170420747665972</v>
       </c>
       <c r="M8" t="n">
-        <v>0.009346258837080216</v>
+        <v>0.01619614919022876</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000077445279581</v>
+        <v>1.000232564209944</v>
       </c>
       <c r="O8" t="n">
-        <v>0.009744148425197691</v>
+        <v>0.01688565279190758</v>
       </c>
       <c r="P8" t="n">
-        <v>124.6911165605164</v>
+        <v>122.4919270772272</v>
       </c>
       <c r="Q8" t="n">
-        <v>189.2915352785311</v>
+        <v>187.0923457952419</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_4</t>
+          <t>model_34_1_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9997751644635522</v>
+        <v>0.999725544142131</v>
       </c>
       <c r="C9" t="n">
-        <v>0.999170565994019</v>
+        <v>0.9987866540062668</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9993769373972059</v>
+        <v>0.9996926336722503</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999614559736114</v>
+        <v>0.9991319810865591</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999279518072635</v>
+        <v>0.9993899046418132</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0002098741041345771</v>
+        <v>0.0002561924961009372</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007742402366382164</v>
+        <v>0.001132605225416282</v>
       </c>
       <c r="I9" t="n">
-        <v>6.969054877432343e-05</v>
+        <v>0.0002162529201084885</v>
       </c>
       <c r="J9" t="n">
-        <v>5.45379399274567e-05</v>
+        <v>0.000733273050297131</v>
       </c>
       <c r="K9" t="n">
-        <v>6.211317054659888e-05</v>
+        <v>0.0004747629852028098</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001614217175704049</v>
+        <v>0.00163901937045563</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01448703227492012</v>
+        <v>0.01600601437275805</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000186070788784</v>
+        <v>1.000227135882374</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01510377523115449</v>
+        <v>0.01668742354162381</v>
       </c>
       <c r="P9" t="n">
-        <v>122.9380054222846</v>
+        <v>122.5391629163082</v>
       </c>
       <c r="Q9" t="n">
-        <v>187.5384241402992</v>
+        <v>187.1395816343228</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_12</t>
+          <t>model_34_1_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999125954248782</v>
+        <v>0.9997241593933526</v>
       </c>
       <c r="C10" t="n">
-        <v>0.999169878230706</v>
+        <v>0.998717023930877</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9987853242406148</v>
+        <v>0.9996901565499974</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999338105386141</v>
+        <v>0.9989698799587646</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998668850715183</v>
+        <v>0.9993007988588481</v>
       </c>
       <c r="G10" t="n">
-        <v>8.158833425878086e-05</v>
+        <v>0.0002574850983021193</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0007748822335015832</v>
+        <v>0.001197601844385592</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001358634266842559</v>
+        <v>0.0002179957425073102</v>
       </c>
       <c r="J10" t="n">
-        <v>9.365489823253758e-05</v>
+        <v>0.0008702106061429203</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001147591624583967</v>
+        <v>0.0005441031743251153</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001037200019511376</v>
+        <v>0.001582543000959795</v>
       </c>
       <c r="M10" t="n">
-        <v>0.009032626099799596</v>
+        <v>0.01604634220942951</v>
       </c>
       <c r="N10" t="n">
-        <v>1.00007233482079</v>
+        <v>1.000228281881363</v>
       </c>
       <c r="O10" t="n">
-        <v>0.009417163692981767</v>
+        <v>0.01672946821779251</v>
       </c>
       <c r="P10" t="n">
-        <v>124.8276485374585</v>
+        <v>122.5290974204129</v>
       </c>
       <c r="Q10" t="n">
-        <v>189.4280672554732</v>
+        <v>187.1295161384275</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_13</t>
+          <t>model_34_1_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999183573942874</v>
+        <v>0.9997166112738297</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991632172689517</v>
+        <v>0.9986471049919199</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9987327841943204</v>
+        <v>0.9996776045914991</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999281682676237</v>
+        <v>0.9988049797096517</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998588464824604</v>
+        <v>0.9992056192953829</v>
       </c>
       <c r="G11" t="n">
-        <v>7.62097887365446e-05</v>
+        <v>0.0002645309365525664</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0007810999489167244</v>
+        <v>0.001262868104815376</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000141740114905413</v>
+        <v>0.0002268268909880145</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001016384397865924</v>
+        <v>0.00100951276510447</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001216892773460027</v>
+        <v>0.0006181698477962519</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0009873572705397689</v>
+        <v>0.001535751520190487</v>
       </c>
       <c r="M11" t="n">
-        <v>0.008729821804398106</v>
+        <v>0.01626440704583374</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000067566294383</v>
+        <v>1.000234528600969</v>
       </c>
       <c r="O11" t="n">
-        <v>0.00910146839183373</v>
+        <v>0.01695681652573891</v>
       </c>
       <c r="P11" t="n">
-        <v>124.9640412848252</v>
+        <v>122.4751047022279</v>
       </c>
       <c r="Q11" t="n">
-        <v>189.5644600028398</v>
+        <v>187.0755234202425</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_14</t>
+          <t>model_34_1_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999217170928579</v>
+        <v>0.9997050492222983</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991540011268953</v>
+        <v>0.9985791410438546</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9986616497837748</v>
+        <v>0.9996585543899457</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999198803314171</v>
+        <v>0.9986429232866961</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998474343041478</v>
+        <v>0.9991090457683016</v>
       </c>
       <c r="G12" t="n">
-        <v>7.307365759467126e-05</v>
+        <v>0.0002753236041417563</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0007897028129845488</v>
+        <v>0.00132630946706175</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001496966125116512</v>
+        <v>0.0002402299912714779</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001133654701283456</v>
+        <v>0.001146412555812721</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001315277833641809</v>
+        <v>0.0006933212735420991</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0009455591755338405</v>
+        <v>0.001512256466267888</v>
       </c>
       <c r="M12" t="n">
-        <v>0.008548313143227222</v>
+        <v>0.01659287811507565</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000064785854186</v>
+        <v>1.000244097195339</v>
       </c>
       <c r="O12" t="n">
-        <v>0.008912232531182075</v>
+        <v>0.01729927128842729</v>
       </c>
       <c r="P12" t="n">
-        <v>125.0480852347525</v>
+        <v>122.3951268195653</v>
       </c>
       <c r="Q12" t="n">
-        <v>189.6485039527671</v>
+        <v>186.9955455375799</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_3</t>
+          <t>model_34_1_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9997301277358349</v>
+        <v>0.9996909001693683</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991523060914269</v>
+        <v>0.9985140945544616</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9993836160195015</v>
+        <v>0.9996353687305305</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999574206179775</v>
+        <v>0.9984863580370958</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999250742419863</v>
+        <v>0.9990135860328847</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0002519139125748337</v>
+        <v>0.0002885311239802296</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0007912850541909086</v>
+        <v>0.001387027509699221</v>
       </c>
       <c r="I13" t="n">
-        <v>6.894353418741995e-05</v>
+        <v>0.0002565426647834908</v>
       </c>
       <c r="J13" t="n">
-        <v>6.024777368815602e-05</v>
+        <v>0.001278673588800873</v>
       </c>
       <c r="K13" t="n">
-        <v>6.459393648994963e-05</v>
+        <v>0.0007676059707539311</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001739847667238535</v>
+        <v>0.001492235231267255</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01587179613575079</v>
+        <v>0.01698620393084428</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000223342563447</v>
+        <v>1.000255806756385</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0165474913563971</v>
+        <v>0.01770934179846987</v>
       </c>
       <c r="P13" t="n">
-        <v>122.5728462911674</v>
+        <v>122.3014151915089</v>
       </c>
       <c r="Q13" t="n">
-        <v>187.173265009182</v>
+        <v>186.9018339095235</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_15</t>
+          <t>model_34_1_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999248021303728</v>
+        <v>0.9996751853784698</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991453393921884</v>
+        <v>0.9984524978135192</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9986125538827485</v>
+        <v>0.9996098067102051</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999130564486692</v>
+        <v>0.9983367535136302</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998386485959916</v>
+        <v>0.9989208358559133</v>
       </c>
       <c r="G14" t="n">
-        <v>7.019391049196615e-05</v>
+        <v>0.000303200191484372</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0007977881621272331</v>
+        <v>0.00144452536358451</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001551880675753045</v>
+        <v>0.0002745272683011193</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00012302093537798</v>
+        <v>0.001405054435532701</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00013910199401895</v>
+        <v>0.000839782148307368</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000903209981420616</v>
+        <v>0.001475174982972813</v>
       </c>
       <c r="M14" t="n">
-        <v>0.008378180619440366</v>
+        <v>0.01741264458617277</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000062232719692</v>
+        <v>1.000268812100577</v>
       </c>
       <c r="O14" t="n">
-        <v>0.008734857113634737</v>
+        <v>0.01815393691534956</v>
       </c>
       <c r="P14" t="n">
-        <v>125.1284979916475</v>
+        <v>122.202234545303</v>
       </c>
       <c r="Q14" t="n">
-        <v>189.7289167096622</v>
+        <v>186.8026532633176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_16</t>
+          <t>model_34_1_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999259480573068</v>
+        <v>0.9996587823364435</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991344771813293</v>
+        <v>0.998394849255264</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9985499288803615</v>
+        <v>0.9995831744640472</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999036008542282</v>
+        <v>0.99819583332024</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998268235217326</v>
+        <v>0.9988322833752606</v>
       </c>
       <c r="G15" t="n">
-        <v>6.91242379994235e-05</v>
+        <v>0.0003185117112056415</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008079275591682438</v>
+        <v>0.001498337762236551</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0001621927742673332</v>
+        <v>0.000293264847797416</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001364001458528461</v>
+        <v>0.00152409905363447</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0001492964600600896</v>
+        <v>0.0009086917695618638</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0008679717977043522</v>
+        <v>0.001460438523168452</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0083140987484768</v>
+        <v>0.01784689640261414</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000061284366367</v>
+        <v>1.000282387031909</v>
       </c>
       <c r="O15" t="n">
-        <v>0.008668047144756493</v>
+        <v>0.01860667573064201</v>
       </c>
       <c r="P15" t="n">
-        <v>125.159210243398</v>
+        <v>122.1037026275033</v>
       </c>
       <c r="Q15" t="n">
-        <v>189.7596289614127</v>
+        <v>186.7041213455179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_2</t>
+          <t>model_34_1_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9996720414241974</v>
+        <v>0.9996422952629989</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991248081494872</v>
+        <v>0.9983413173896456</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9993607445003532</v>
+        <v>0.9995564012352307</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999508641243264</v>
+        <v>0.9980643346140503</v>
       </c>
       <c r="F16" t="n">
-        <v>0.999918208047389</v>
+        <v>0.9987488174188602</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003061349347940395</v>
+        <v>0.0003339016705673242</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008169531759714279</v>
+        <v>0.001548307409013933</v>
       </c>
       <c r="I16" t="n">
-        <v>7.150175018948356e-05</v>
+        <v>0.0003121016180926078</v>
       </c>
       <c r="J16" t="n">
-        <v>6.952489625120997e-05</v>
+        <v>0.001635184717673323</v>
       </c>
       <c r="K16" t="n">
-        <v>7.051332322034678e-05</v>
+        <v>0.0009736431678829657</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00190696579817982</v>
+        <v>0.001447626560730908</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01749671211382411</v>
+        <v>0.01827297651088416</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000271413993768</v>
+        <v>1.000296031506484</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01824158337169679</v>
+        <v>0.0190508949512285</v>
       </c>
       <c r="P16" t="n">
-        <v>122.1829691796569</v>
+        <v>122.0093280156613</v>
       </c>
       <c r="Q16" t="n">
-        <v>186.7833878976715</v>
+        <v>186.6097467336759</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_17</t>
+          <t>model_34_1_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999264571046275</v>
+        <v>0.999626020084761</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991234898226271</v>
+        <v>0.9982917191148255</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9984943935045357</v>
+        <v>0.9995299807215817</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9998940558265101</v>
+        <v>0.9979418895065183</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998153878759797</v>
+        <v>0.9986704124460224</v>
       </c>
       <c r="G17" t="n">
-        <v>6.864906467025884e-05</v>
+        <v>0.0003490938350545776</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008181837762274441</v>
+        <v>0.001594605221445853</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0001684044948879117</v>
+        <v>0.0003306902295035466</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001499059001051242</v>
+        <v>0.001738622207460307</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001591551974965179</v>
+        <v>0.001034656218481927</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0008347579017142702</v>
+        <v>0.001436407296493968</v>
       </c>
       <c r="M17" t="n">
-        <v>0.008285473110828303</v>
+        <v>0.01868405296113714</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000060863085826</v>
+        <v>1.000309500619508</v>
       </c>
       <c r="O17" t="n">
-        <v>0.00863820285445006</v>
+        <v>0.01947947177701432</v>
       </c>
       <c r="P17" t="n">
-        <v>125.1730061009139</v>
+        <v>121.9203396070985</v>
       </c>
       <c r="Q17" t="n">
-        <v>189.7734248189286</v>
+        <v>186.5207583251131</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_18</t>
+          <t>model_34_1_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999265617862335</v>
+        <v>0.9996102677291151</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991125440828159</v>
+        <v>0.9982460223320644</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9984457520682096</v>
+        <v>0.9995043841576973</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9998848141107602</v>
+        <v>0.9978286761370946</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998046554625838</v>
+        <v>0.9985973818285165</v>
       </c>
       <c r="G18" t="n">
-        <v>6.855134898595167e-05</v>
+        <v>0.0003637979676015605</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008284011438787567</v>
+        <v>0.001637261162296478</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001738451173479009</v>
+        <v>0.0003486991367423283</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001629824825387642</v>
+        <v>0.001834261036806327</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001684076741835451</v>
+        <v>0.001091487062239471</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0008029416166249183</v>
+        <v>0.001426522211556892</v>
       </c>
       <c r="M18" t="n">
-        <v>0.008279574203179272</v>
+        <v>0.01907348860595671</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000060776452772</v>
+        <v>1.000322537051767</v>
       </c>
       <c r="O18" t="n">
-        <v>0.008632052818089988</v>
+        <v>0.01988548650347677</v>
       </c>
       <c r="P18" t="n">
-        <v>125.1758549465763</v>
+        <v>121.8378237569552</v>
       </c>
       <c r="Q18" t="n">
-        <v>189.7762736645909</v>
+        <v>186.4382424749698</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_19</t>
+          <t>model_34_1_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999278356366188</v>
+        <v>0.9995952806502627</v>
       </c>
       <c r="C19" t="n">
-        <v>0.999104504403165</v>
+        <v>0.9982041751033814</v>
       </c>
       <c r="D19" t="n">
-        <v>0.998426872110824</v>
+        <v>0.9994799885662633</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9998798750948253</v>
+        <v>0.9977247456226678</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9997993622580963</v>
+        <v>0.9985299506403778</v>
       </c>
       <c r="G19" t="n">
-        <v>6.736226556685872e-05</v>
+        <v>0.0003777877478535117</v>
       </c>
       <c r="H19" t="n">
-        <v>0.000835905831931755</v>
+        <v>0.001676323713390887</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0001759568707818813</v>
+        <v>0.0003658630789476811</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001699709520784979</v>
+        <v>0.001922058023891104</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001729709768922459</v>
+        <v>0.001143960551419393</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0007679560131437381</v>
+        <v>0.001417667579292729</v>
       </c>
       <c r="M19" t="n">
-        <v>0.008207451831528389</v>
+        <v>0.01943676279254114</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000059722231764</v>
+        <v>1.000334940151507</v>
       </c>
       <c r="O19" t="n">
-        <v>0.008556860047764035</v>
+        <v>0.02026422602426534</v>
       </c>
       <c r="P19" t="n">
-        <v>125.2108511097671</v>
+        <v>121.7623560673351</v>
       </c>
       <c r="Q19" t="n">
-        <v>189.8112698277817</v>
+        <v>186.3627747853497</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_20</t>
+          <t>model_34_1_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999266140263631</v>
+        <v>0.9995811150665371</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990929129695628</v>
+        <v>0.9981658936949985</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9983780187418614</v>
+        <v>0.9994569249998895</v>
       </c>
       <c r="E20" t="n">
-        <v>0.999869466659295</v>
+        <v>0.9976294314052067</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9997876582979476</v>
+        <v>0.9984677894364543</v>
       </c>
       <c r="G20" t="n">
-        <v>6.850258511812205e-05</v>
+        <v>0.000391010698464068</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008467259263942264</v>
+        <v>0.001712057727756721</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001814211982462708</v>
+        <v>0.0003820898517792138</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001846983867780537</v>
+        <v>0.002002576254418317</v>
       </c>
       <c r="K20" t="n">
-        <v>0.000183061029746798</v>
+        <v>0.001192333053098765</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0007423865530609136</v>
+        <v>0.001409799362440773</v>
       </c>
       <c r="M20" t="n">
-        <v>0.008276628849847143</v>
+        <v>0.01977399045372653</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000060733219562</v>
+        <v>1.000346663393211</v>
       </c>
       <c r="O20" t="n">
-        <v>0.008628982074968788</v>
+        <v>0.02061581016514489</v>
       </c>
       <c r="P20" t="n">
-        <v>125.177278148915</v>
+        <v>121.6935512731051</v>
       </c>
       <c r="Q20" t="n">
-        <v>189.7776968669296</v>
+        <v>186.2939699911197</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_21</t>
+          <t>model_34_1_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.999926973447354</v>
+        <v>0.9995678538073548</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990846642063372</v>
+        <v>0.9981309814947559</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9983635688639337</v>
+        <v>0.9994353074058772</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9998642302512953</v>
+        <v>0.9975423978699564</v>
       </c>
       <c r="F21" t="n">
-        <v>0.999782430381878</v>
+        <v>0.9984107765251848</v>
       </c>
       <c r="G21" t="n">
-        <v>6.816708139984165e-05</v>
+        <v>0.0004033895018087628</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008544257847864226</v>
+        <v>0.001744646734214844</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000183037440206527</v>
+        <v>0.0003972992856332555</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001921076517582706</v>
+        <v>0.002076099244393404</v>
       </c>
       <c r="K21" t="n">
-        <v>0.000187568046926593</v>
+        <v>0.00123669926501333</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0007142091048112691</v>
+        <v>0.001402733428656818</v>
       </c>
       <c r="M21" t="n">
-        <v>0.008256335833760739</v>
+        <v>0.02008455879049283</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000060435767707</v>
+        <v>1.000357638228396</v>
       </c>
       <c r="O21" t="n">
-        <v>0.008607825143175252</v>
+        <v>0.02093960003897241</v>
       </c>
       <c r="P21" t="n">
-        <v>125.1870975741256</v>
+        <v>121.6312159141092</v>
       </c>
       <c r="Q21" t="n">
-        <v>189.7875162921402</v>
+        <v>186.2316346321238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_1</t>
+          <t>model_34_1_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9995966986501357</v>
+        <v>0.9995554629588386</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990842637866342</v>
+        <v>0.998099141655357</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9992942912738481</v>
+        <v>0.9994150852360272</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999399700011318</v>
+        <v>0.9974628149564365</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999049570305633</v>
+        <v>0.9983584385117914</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0003764641072150572</v>
+        <v>0.0004149558150033297</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008547995590028456</v>
+        <v>0.001774367826686224</v>
       </c>
       <c r="I22" t="n">
-        <v>7.893464987275347e-05</v>
+        <v>0.0004115269445737105</v>
       </c>
       <c r="J22" t="n">
-        <v>8.493955559062335e-05</v>
+        <v>0.002143328200865039</v>
       </c>
       <c r="K22" t="n">
-        <v>8.193710273168842e-05</v>
+        <v>0.001277427572719375</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002110682639454338</v>
+        <v>0.001396461516481813</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0194026829901191</v>
+        <v>0.02037046428050499</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000333766634371</v>
+        <v>1.00036789272372</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02022869537409928</v>
+        <v>0.02123767711760035</v>
       </c>
       <c r="P22" t="n">
-        <v>121.7693756960618</v>
+        <v>121.5746770265468</v>
       </c>
       <c r="Q22" t="n">
-        <v>186.3697944140765</v>
+        <v>186.1750957445614</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_22</t>
+          <t>model_34_1_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999236319935717</v>
+        <v>0.9995439949664445</v>
       </c>
       <c r="C23" t="n">
-        <v>0.999071141562887</v>
+        <v>0.9980701998960366</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9983004534176327</v>
+        <v>0.9993963539095964</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9998494816020781</v>
+        <v>0.9973904550270395</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9997662275056842</v>
+        <v>0.9983106949733945</v>
       </c>
       <c r="G23" t="n">
-        <v>7.12861818327697e-05</v>
+        <v>0.0004256606825164072</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008670485788718138</v>
+        <v>0.001801383688615386</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0001900970038348398</v>
+        <v>0.000424705694724479</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0002129762796726542</v>
+        <v>0.002204455424392834</v>
       </c>
       <c r="K23" t="n">
-        <v>0.000201536641753747</v>
+        <v>0.001314580559558656</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0006992125272177538</v>
+        <v>0.001390798224658271</v>
       </c>
       <c r="M23" t="n">
-        <v>0.008443114462848985</v>
+        <v>0.02063154581015216</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000063201108768</v>
+        <v>1.000377383476046</v>
       </c>
       <c r="O23" t="n">
-        <v>0.008802555325188848</v>
+        <v>0.02150987342847787</v>
       </c>
       <c r="P23" t="n">
-        <v>125.0976161050265</v>
+        <v>121.523736098</v>
       </c>
       <c r="Q23" t="n">
-        <v>189.6980348230411</v>
+        <v>186.1241548160146</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_23</t>
+          <t>model_34_1_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999211664262805</v>
+        <v>0.9995333853969229</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990594437399548</v>
+        <v>0.998043888800653</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9982564977801096</v>
+        <v>0.9993790079450861</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998376263646352</v>
+        <v>0.9973245564536996</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9997536508394462</v>
+        <v>0.9982670848260932</v>
       </c>
       <c r="G24" t="n">
-        <v>7.358768067320908e-05</v>
+        <v>0.0004355642499585251</v>
       </c>
       <c r="H24" t="n">
-        <v>0.000877967983103904</v>
+        <v>0.001825943941232426</v>
       </c>
       <c r="I24" t="n">
-        <v>0.00019501351220331</v>
+        <v>0.0004369097494265803</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0002297508693578593</v>
+        <v>0.002260124312633531</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0002123790596587322</v>
+        <v>0.001348517031030056</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0006822802287776657</v>
+        <v>0.001385738817403956</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00857832621629704</v>
+        <v>0.02087017608834494</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000065241578251</v>
+        <v>1.000386163809443</v>
       </c>
       <c r="O24" t="n">
-        <v>0.008943523322908101</v>
+        <v>0.02175866269164609</v>
       </c>
       <c r="P24" t="n">
-        <v>125.0340658567938</v>
+        <v>121.4777364821515</v>
       </c>
       <c r="Q24" t="n">
-        <v>189.6344845748084</v>
+        <v>186.0781552001661</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_24</t>
+          <t>model_34_1_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999209384484463</v>
+        <v>0.9995236438928174</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990520373386899</v>
+        <v>0.9980200546262789</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9982481720911111</v>
+        <v>0.9993630520110106</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998328850484203</v>
+        <v>0.9972648538363482</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9997492228337862</v>
+        <v>0.998227466125304</v>
       </c>
       <c r="G25" t="n">
-        <v>7.380048797431194e-05</v>
+        <v>0.0004446575164383745</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008848815335813158</v>
+        <v>0.001848192096811276</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0001959447538355797</v>
+        <v>0.0004481358240656911</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0002364596033209522</v>
+        <v>0.002310559066598091</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0002161964693715888</v>
+        <v>0.001379347445331891</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000660847325488981</v>
+        <v>0.001381181102433808</v>
       </c>
       <c r="M25" t="n">
-        <v>0.008590721039255782</v>
+        <v>0.02108690390831178</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000065430249562</v>
+        <v>1.000394225743875</v>
       </c>
       <c r="O25" t="n">
-        <v>0.008956445819141018</v>
+        <v>0.02198461706359735</v>
       </c>
       <c r="P25" t="n">
-        <v>125.0282904285233</v>
+        <v>121.4364123961867</v>
       </c>
       <c r="Q25" t="n">
-        <v>189.6287091465379</v>
+        <v>186.0368311142013</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_34_1_0</t>
+          <t>model_34_1_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9994995017551991</v>
+        <v>0.9995146958364828</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990257604379699</v>
+        <v>0.9979984366841472</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9991726909267059</v>
+        <v>0.9993483835297006</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999226075594881</v>
+        <v>0.9972106529714087</v>
       </c>
       <c r="F26" t="n">
-        <v>0.99988281835688</v>
+        <v>0.9981914156967976</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0004671931421877898</v>
+        <v>0.0004530101342525923</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009094098669808108</v>
+        <v>0.001868371496873211</v>
       </c>
       <c r="I26" t="n">
-        <v>9.253584321267744e-05</v>
+        <v>0.000458456088943332</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001095065738311938</v>
+        <v>0.002356346126012943</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001010229834725547</v>
+        <v>0.001407401107478137</v>
       </c>
       <c r="L26" t="n">
-        <v>0.002360954586148611</v>
+        <v>0.001377075751050742</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02161465110030208</v>
+        <v>0.02128403472682264</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000414205443973</v>
+        <v>1.000401631031876</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02253483154613797</v>
+        <v>0.02219014014916927</v>
       </c>
       <c r="P26" t="n">
-        <v>121.3375356101888</v>
+        <v>121.3991921226259</v>
       </c>
       <c r="Q26" t="n">
-        <v>185.9379543282034</v>
+        <v>185.9996108406405</v>
       </c>
     </row>
   </sheetData>
